--- a/data/trans_camb/P25_1-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_1-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,11</t>
+          <t>-5,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,95</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,34</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,8</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,65</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,7; -0,09</t>
+          <t>-14,7; 3,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,86; -1,31</t>
+          <t>-17,49; 0,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 3,25</t>
+          <t>-19,04; 2,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-16,26; -1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 2,97</t>
+          <t>-12,78; 3,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; -2,68</t>
+          <t>-7,55; 7,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,57; -2,35</t>
+          <t>-3,94; 15,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 0,88</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-10,71; 1,54</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 2,19</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 8,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-30,62%</t>
+          <t>-22,51%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-38,51%</t>
+          <t>-33,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-34,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-26,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-20,11%</t>
+          <t>-24,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-32,91%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,65%</t>
+          <t>32,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-21,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-23,18%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-15,62%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,67%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-55,5; -0,75</t>
+          <t>-51,15; 23,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,71; -6,6</t>
+          <t>-59,46; 5,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 19,7</t>
+          <t>-67,51; 14,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,87; -7,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 14,79</t>
+          <t>-54,72; 23,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -13,52</t>
+          <t>-32,42; 62,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,93; -11,36</t>
+          <t>-17,77; 119,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 5,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-44,86; 9,66</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-36,32; 13,62</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-29,81; 51,85</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,79</t>
+          <t>-5,2; 0,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,49</t>
+          <t>-4,25; 2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 7,53</t>
+          <t>-2,21; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 2,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,34</t>
+          <t>-2,68; 3,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 0,63</t>
+          <t>-2,6; 3,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,72</t>
+          <t>-2,83; 4,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 1,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 2,13</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 3,81</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,78%</t>
+          <t>-33,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>69,11%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-22,06%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,35%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,63%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-14,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-56,14; 20,77</t>
+          <t>-62,71; 16,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,36; 55,34</t>
+          <t>-47,11; 52,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 169,28</t>
+          <t>-27,38; 111,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 46,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 53,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 37,35</t>
+          <t>-43,37; 122,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,07; 14,31</t>
+          <t>-43,46; 111,32</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 38,67</t>
+          <t>-47,88; 135,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 83,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-43,53; 33,38</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-33,9; 53,24</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-19,38; 94,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,25</t>
+          <t>-1,83; 4,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,84</t>
+          <t>-2,23; 3,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 8,16</t>
+          <t>-1,75; 5,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 1,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,53</t>
+          <t>-2,35; 1,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,13</t>
+          <t>-1,78; 2,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,58</t>
+          <t>-1,28; 3,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 2,22</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 2,16</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 3,33</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,62%</t>
+          <t>35,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>25,32%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-11,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,24%</t>
+          <t>-17,76%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,09%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-4,44%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>48,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-64,15; 74,13</t>
+          <t>-37,87; 221,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-63,9; 59,79</t>
+          <t>-40,47; 196,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-56,48; 217,11</t>
+          <t>-39,36; 259,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,87; 201,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-50,49; 246,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,12; 193,87</t>
+          <t>-76,4; 232,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-59,73; 45,99</t>
+          <t>-54,88; 268,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 61,92</t>
+          <t>-54,99; 497,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 144,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-39,64; 133,78</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-31,28; 124,69</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-22,97; 181,78</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-1,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,66</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,85</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,28</t>
+          <t>-5,91; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 0,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 5,4</t>
+          <t>-3,05; 5,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 0,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,08</t>
+          <t>-7,04; 2,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,68; -0,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,2</t>
+          <t>-6,14; 3,41</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 1,1</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 3,41</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-21,41%</t>
+          <t>-17,41%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-23,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-11,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>-13,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-17,95%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-0,8%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 4,96</t>
+          <t>-53,11; 35,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 7,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 70,79</t>
+          <t>-30,24; 82,97</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 4,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 18,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 41,72</t>
+          <t>-50,56; 26,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,94; -4,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 2,47</t>
+          <t>-43,82; 33,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-6,98; 45,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-41,69; 12,17</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-29,65; 39,22</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-1,51</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 0,88</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 0,99</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,81; 2,92</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 0,28</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 1,25</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 3,58</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; -0,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 0,46</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 2,36</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-14,53%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-13,92%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>5,96%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-21,21%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-9,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-17,96%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-11,59%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>8,3%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-35,89; 12,47</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-34,55; 14,02</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-18,91; 40,85</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-39,92; 3,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-29,65; 17,33</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,7; 49,01</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-31,86; -1,57</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-26,75; 5,66</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-9,95; 31,17</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
